--- a/Random_Locations.xlsx
+++ b/Random_Locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Matthes\Software-Entwicklung\Source\GitHub\kMeansCluster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AD30BC-4A4B-4378-AEAA-84D31AA63EDA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB42D0EB-CD44-49E7-9516-B8376C2B7608}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{44A7F19D-EEB1-41F7-8425-A6781A665424}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{44A7F19D-EEB1-41F7-8425-A6781A665424}"/>
   </bookViews>
   <sheets>
     <sheet name="Location_Generator" sheetId="4" r:id="rId1"/>
@@ -483,166 +483,166 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-6</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>-9</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-10</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-14</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-10</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-11</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-7</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-14</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-13</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>-9</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>-11</c:v>
-                </c:pt>
                 <c:pt idx="35">
-                  <c:v>-9</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-13</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>-10</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>-6</c:v>
-                </c:pt>
                 <c:pt idx="40">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="45">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>-2</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="54">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>3</c:v>
@@ -651,34 +651,34 @@
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="59">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="64">
                   <c:v>-4</c:v>
                 </c:pt>
-                <c:pt idx="62">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="65">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="64">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-2</c:v>
-                </c:pt>
                 <c:pt idx="66">
-                  <c:v>-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>-1</c:v>
@@ -693,91 +693,91 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="71">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>-2</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="74">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>-2</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="93">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="76">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="95">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="78">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="98">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="82">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="99">
                   <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -789,190 +789,190 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-4</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="26">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-12</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>-13</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-6</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-12</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>-7</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>-9</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-13</c:v>
-                </c:pt>
                 <c:pt idx="39">
-                  <c:v>-12</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>12</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-7</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-10</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>-11</c:v>
@@ -984,109 +984,109 @@
                   <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-14</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-7</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="68">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>-7</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>-13</c:v>
                 </c:pt>
-                <c:pt idx="70">
-                  <c:v>-14</c:v>
-                </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>-9</c:v>
                 </c:pt>
-                <c:pt idx="72">
-                  <c:v>-12</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-14</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-13</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-12</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-8</c:v>
-                </c:pt>
                 <c:pt idx="78">
-                  <c:v>-10</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-12</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="83">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="84">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="90">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="94">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="86">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="96">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="97">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="98">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="92">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="99">
-                  <c:v>-2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4991,9 +4991,9 @@
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5016,13 +5016,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(0,360)</f>
-        <v>351</v>
+        <v>270</v>
       </c>
       <c r="C2">
         <f ca="1">ROUNDDOWN(COS(B2)*G2,0) +E2</f>
@@ -5030,7 +5030,7 @@
       </c>
       <c r="D2">
         <f ca="1">ROUNDDOWN(SIN(B2)*G2,0) +F2</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -5040,24 +5040,24 @@
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(3,5)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B66" ca="1" si="0">RANDBETWEEN(0,360)</f>
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C51" ca="1" si="1">ROUNDDOWN(COS(B3)*G3,0) +E3</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D51" ca="1" si="2">ROUNDDOWN(SIN(B3)*G3,0) +F3</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -5067,24 +5067,24 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="3">RANDBETWEEN(3,5)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>292</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -5097,17 +5097,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="2"/>
@@ -5121,24 +5121,24 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -5148,24 +5148,24 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -5175,24 +5175,24 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>217</v>
+        <v>296</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -5202,24 +5202,24 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -5232,21 +5232,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -5259,21 +5259,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>150</v>
+        <v>223</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -5283,24 +5283,24 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -5310,16 +5310,16 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
@@ -5327,7 +5327,7 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -5337,24 +5337,24 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -5364,16 +5364,16 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
@@ -5381,7 +5381,7 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -5391,24 +5391,24 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -5418,24 +5418,24 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>10</v>
@@ -5448,21 +5448,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -5472,24 +5472,24 @@
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>10</v>
@@ -5502,13 +5502,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>178</v>
+        <v>66</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>10</v>
@@ -5526,20 +5526,20 @@
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>264</v>
+        <v>110</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
@@ -5556,21 +5556,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>-10</v>
@@ -5583,21 +5583,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>265</v>
+        <v>136</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>-10</v>
@@ -5610,21 +5610,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>208</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E24">
         <v>-10</v>
@@ -5634,20 +5634,20 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>224</v>
+        <v>351</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
@@ -5664,13 +5664,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>222</v>
+        <v>329</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
@@ -5678,7 +5678,7 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>-10</v>
@@ -5688,24 +5688,24 @@
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>149</v>
+        <v>316</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E27">
         <v>-10</v>
@@ -5715,24 +5715,24 @@
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>135</v>
+        <v>298</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28">
         <v>-10</v>
@@ -5742,24 +5742,24 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>-10</v>
@@ -5772,17 +5772,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>33</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
@@ -5796,24 +5796,24 @@
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>34</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>-7</v>
+        <v>-12</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E31">
         <v>-10</v>
@@ -5826,21 +5826,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>35</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="E32">
         <v>-10</v>
@@ -5853,13 +5853,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>36</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="E33">
         <v>-10</v>
@@ -5877,24 +5877,24 @@
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>37</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>324</v>
+        <v>199</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="E34">
         <v>-10</v>
@@ -5907,17 +5907,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>38</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>353</v>
+        <v>95</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="2"/>
@@ -5931,24 +5931,24 @@
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>39</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="2"/>
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="E36">
         <v>-10</v>
@@ -5958,24 +5958,24 @@
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>40</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="2"/>
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="E37">
         <v>-10</v>
@@ -5985,16 +5985,16 @@
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>41</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
@@ -6002,7 +6002,7 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="2"/>
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="E38">
         <v>-10</v>
@@ -6012,24 +6012,24 @@
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>42</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="0"/>
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="2"/>
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="E39">
         <v>-10</v>
@@ -6039,24 +6039,24 @@
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>43</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="2"/>
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="E40">
         <v>-10</v>
@@ -6069,21 +6069,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>44</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="2"/>
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="E41">
         <v>-10</v>
@@ -6093,24 +6093,24 @@
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>45</v>
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="0"/>
-        <v>156</v>
+        <v>221</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -6120,20 +6120,20 @@
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>46</v>
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="0"/>
-        <v>319</v>
+        <v>48</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="2"/>
@@ -6150,21 +6150,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>47</v>
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -6174,24 +6174,24 @@
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>48</v>
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -6201,24 +6201,24 @@
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>49</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="0"/>
-        <v>263</v>
+        <v>58</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -6231,17 +6231,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>50</v>
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="0"/>
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="2"/>
@@ -6255,24 +6255,24 @@
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>51</v>
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="0"/>
-        <v>129</v>
+        <v>233</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -6282,24 +6282,24 @@
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="0"/>
-        <v>306</v>
+        <v>16</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -6309,20 +6309,20 @@
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>53</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="0"/>
-        <v>267</v>
+        <v>113</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="1"/>
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="2"/>
@@ -6336,24 +6336,24 @@
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>54</v>
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="0"/>
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -6363,24 +6363,24 @@
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>57</v>
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>252</v>
       </c>
       <c r="C52">
         <f t="shared" ref="C52:C61" ca="1" si="4">ROUNDDOWN(COS(B52)*G52,0) +E52</f>
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <f t="shared" ref="D52:D61" ca="1" si="5">ROUNDDOWN(SIN(B52)*G52,0) +F52</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -6393,17 +6393,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>58</v>
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="0"/>
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="5"/>
@@ -6417,24 +6417,24 @@
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>59</v>
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="0"/>
-        <v>280</v>
+        <v>22</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="4"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -6444,24 +6444,24 @@
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>60</v>
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="0"/>
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -6474,17 +6474,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>61</v>
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="0"/>
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="4"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="5"/>
@@ -6498,16 +6498,16 @@
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>62</v>
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>302</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="4"/>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -6528,13 +6528,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>63</v>
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="0"/>
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="4"/>
@@ -6542,7 +6542,7 @@
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -6552,24 +6552,24 @@
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>64</v>
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -6579,20 +6579,20 @@
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>65</v>
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="4"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="5"/>
@@ -6609,21 +6609,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>66</v>
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="0"/>
-        <v>252</v>
+        <v>345</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -6633,24 +6633,24 @@
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>67</v>
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="0"/>
-        <v>159</v>
+        <v>356</v>
       </c>
       <c r="C62">
         <f t="shared" ref="C62:C101" ca="1" si="6">ROUNDDOWN(COS(B62)*G62,0) +E62</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D62">
         <f t="shared" ref="D62:D101" ca="1" si="7">ROUNDDOWN(SIN(B62)*G62,0) +F62</f>
-        <v>-7</v>
+        <v>-14</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -6660,24 +6660,24 @@
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>68</v>
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="0"/>
-        <v>311</v>
+        <v>171</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="6"/>
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="7"/>
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -6690,17 +6690,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>69</v>
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="0"/>
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="6"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="7"/>
@@ -6717,17 +6717,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>70</v>
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="0"/>
-        <v>351</v>
+        <v>61</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="7"/>
@@ -6744,17 +6744,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>71</v>
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="0"/>
-        <v>251</v>
+        <v>3</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="7"/>
@@ -6768,24 +6768,24 @@
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>72</v>
       </c>
       <c r="B67">
         <f t="shared" ref="B67:B101" ca="1" si="8">RANDBETWEEN(0,360)</f>
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="6"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="7"/>
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -6795,24 +6795,24 @@
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G81" ca="1" si="9">RANDBETWEEN(3,5)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>73</v>
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="8"/>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="6"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="7"/>
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -6822,16 +6822,16 @@
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>74</v>
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="8"/>
-        <v>360</v>
+        <v>272</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="6"/>
@@ -6852,13 +6852,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>75</v>
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="8"/>
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="6"/>
@@ -6866,7 +6866,7 @@
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="7"/>
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -6876,16 +6876,16 @@
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>76</v>
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="8"/>
-        <v>174</v>
+        <v>335</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="6"/>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="7"/>
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -6906,13 +6906,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>77</v>
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="8"/>
-        <v>288</v>
+        <v>139</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="6"/>
@@ -6920,7 +6920,7 @@
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="7"/>
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -6930,24 +6930,24 @@
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>78</v>
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="8"/>
-        <v>185</v>
+        <v>17</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="6"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="7"/>
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -6957,24 +6957,24 @@
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>79</v>
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="7"/>
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -6984,24 +6984,24 @@
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>80</v>
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="8"/>
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="7"/>
-        <v>-14</v>
+        <v>-7</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -7011,24 +7011,24 @@
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>81</v>
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="8"/>
-        <v>354</v>
+        <v>34</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="6"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="7"/>
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -7038,24 +7038,24 @@
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>82</v>
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="8"/>
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="7"/>
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -7065,24 +7065,24 @@
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>83</v>
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="8"/>
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="7"/>
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -7092,24 +7092,24 @@
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>84</v>
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="8"/>
-        <v>328</v>
+        <v>195</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="7"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -7119,24 +7119,24 @@
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>85</v>
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="8"/>
-        <v>176</v>
+        <v>7</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="7"/>
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -7146,24 +7146,24 @@
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>86</v>
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="8"/>
-        <v>161</v>
+        <v>273</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="6"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="7"/>
-        <v>-12</v>
+        <v>-9</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -7176,17 +7176,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>87</v>
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>254</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="7"/>
@@ -7200,24 +7200,24 @@
       </c>
       <c r="G82">
         <f ca="1">RANDBETWEEN(2,4)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>88</v>
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="8"/>
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="6"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="7"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -7230,21 +7230,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>89</v>
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="8"/>
-        <v>309</v>
+        <v>137</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -7254,24 +7254,24 @@
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>90</v>
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>360</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -7284,21 +7284,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>91</v>
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="8"/>
-        <v>302</v>
+        <v>33</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -7308,24 +7308,24 @@
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>92</v>
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="8"/>
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="6"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -7335,24 +7335,24 @@
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>93</v>
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="8"/>
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -7365,21 +7365,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>94</v>
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="8"/>
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -7389,24 +7389,24 @@
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>95</v>
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="8"/>
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -7416,24 +7416,24 @@
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>96</v>
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="8"/>
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="6"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -7443,24 +7443,24 @@
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>97</v>
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="8"/>
-        <v>101</v>
+        <v>255</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -7470,24 +7470,24 @@
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>98</v>
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="8"/>
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -7497,24 +7497,24 @@
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>99</v>
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="8"/>
-        <v>296</v>
+        <v>21</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -7524,24 +7524,24 @@
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>100</v>
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="8"/>
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="7"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -7551,24 +7551,24 @@
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>101</v>
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="8"/>
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="7"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -7581,21 +7581,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>102</v>
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="8"/>
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="6"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -7605,24 +7605,24 @@
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>103</v>
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="8"/>
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="6"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="7"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -7635,21 +7635,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>104</v>
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="8"/>
-        <v>236</v>
+        <v>83</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="6"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="7"/>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -7662,21 +7662,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>105</v>
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="8"/>
-        <v>311</v>
+        <v>90</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="6"/>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -7686,24 +7686,24 @@
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>106</v>
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="8"/>
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="6"/>
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="7"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -7713,7 +7713,7 @@
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -7731,9 +7731,9 @@
       <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -8184,7 +8184,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -8514,7 +8514,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -8712,7 +8712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>101</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -8869,9 +8869,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -9190,7 +9190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -9278,7 +9278,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -9663,7 +9663,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -9685,7 +9685,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -9696,7 +9696,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -9718,7 +9718,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -9773,7 +9773,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -9795,7 +9795,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -9850,7 +9850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -9927,7 +9927,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>101</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -9949,7 +9949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>106</v>
       </c>

--- a/Random_Locations.xlsx
+++ b/Random_Locations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Matthes\Software-Entwicklung\Source\GitHub\kMeansCluster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB42D0EB-CD44-49E7-9516-B8376C2B7608}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F105930F-3F19-47BA-94AF-0A481A35F755}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{44A7F19D-EEB1-41F7-8425-A6781A665424}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{44A7F19D-EEB1-41F7-8425-A6781A665424}"/>
   </bookViews>
   <sheets>
     <sheet name="Location_Generator" sheetId="4" r:id="rId1"/>
@@ -480,259 +480,259 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>-12</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="28">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>-13</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="30">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>-9</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="36">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>-12</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>-11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-13</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-11</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-12</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-12</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-13</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-11</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-9</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-7</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-11</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-11</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-10</c:v>
-                </c:pt>
                 <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>-1</c:v>
-                </c:pt>
                 <c:pt idx="42">
-                  <c:v>-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="46">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="55">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="66">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="67">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="71">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-4</c:v>
-                </c:pt>
                 <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>-2</c:v>
                 </c:pt>
-                <c:pt idx="74">
-                  <c:v>-3</c:v>
-                </c:pt>
                 <c:pt idx="75">
-                  <c:v>-4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>0</c:v>
@@ -741,43 +741,43 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-3</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="94">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="95">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-1</c:v>
-                </c:pt>
                 <c:pt idx="99">
-                  <c:v>-1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -789,304 +789,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>-2</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>11</c:v>
-                </c:pt>
                 <c:pt idx="27">
-                  <c:v>13</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>-14</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>-9</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-13</c:v>
-                </c:pt>
                 <c:pt idx="33">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>-8</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>-12</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-13</c:v>
-                </c:pt>
                 <c:pt idx="36">
-                  <c:v>-8</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-7</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-7</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="42">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>11</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>13</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>10</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>12</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>13</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-14</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="61">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>-6</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="64">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>-11</c:v>
                 </c:pt>
-                <c:pt idx="63">
-                  <c:v>-13</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="68">
                   <c:v>-12</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-6</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="70">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>-8</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="73">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>-13</c:v>
                 </c:pt>
-                <c:pt idx="72">
-                  <c:v>-11</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-7</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-12</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-11</c:v>
-                </c:pt>
                 <c:pt idx="77">
-                  <c:v>-9</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-9</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-9</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="80">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="87">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="99">
                   <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4988,7 +4988,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5022,15 +5022,15 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(0,360)</f>
-        <v>270</v>
+        <v>52</v>
       </c>
       <c r="C2">
         <f ca="1">ROUNDDOWN(COS(B2)*G2,0) +E2</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <f ca="1">ROUNDDOWN(SIN(B2)*G2,0) +F2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -5040,7 +5040,7 @@
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(3,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -5049,15 +5049,15 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B66" ca="1" si="0">RANDBETWEEN(0,360)</f>
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C51" ca="1" si="1">ROUNDDOWN(COS(B3)*G3,0) +E3</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D51" ca="1" si="2">ROUNDDOWN(SIN(B3)*G3,0) +F3</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -5067,7 +5067,7 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="3">RANDBETWEEN(3,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -5076,15 +5076,15 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>292</v>
+        <v>141</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -5103,11 +5103,11 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="2"/>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -5130,15 +5130,15 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -5157,11 +5157,11 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -5184,15 +5184,15 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -5211,15 +5211,15 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -5238,15 +5238,15 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -5256,7 +5256,7 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -5265,15 +5265,15 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>223</v>
+        <v>53</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -5292,15 +5292,15 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -5319,15 +5319,15 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -5346,15 +5346,15 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>224</v>
+        <v>63</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -5364,7 +5364,7 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -5373,15 +5373,15 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -5400,15 +5400,15 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -5427,15 +5427,15 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>191</v>
+        <v>116</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>10</v>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
@@ -5454,15 +5454,15 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>297</v>
+        <v>108</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -5472,7 +5472,7 @@
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>329</v>
+        <v>228</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
@@ -5489,7 +5489,7 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E19">
         <v>10</v>
@@ -5499,7 +5499,7 @@
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -5508,15 +5508,15 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>186</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E20">
         <v>10</v>
@@ -5526,7 +5526,7 @@
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -5535,15 +5535,15 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>110</v>
+        <v>323</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
@@ -5589,15 +5589,15 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>136</v>
+        <v>291</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E23">
         <v>-10</v>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -5616,15 +5616,15 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>189</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E24">
         <v>-10</v>
@@ -5634,7 +5634,7 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -5643,15 +5643,15 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>351</v>
+        <v>211</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>-10</v>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -5670,15 +5670,15 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>329</v>
+        <v>119</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>-10</v>
@@ -5697,15 +5697,15 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>316</v>
+        <v>179</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>-10</v>
@@ -5724,15 +5724,15 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>298</v>
+        <v>74</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E28">
         <v>-10</v>
@@ -5751,15 +5751,15 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E29">
         <v>-10</v>
@@ -5769,7 +5769,7 @@
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -5778,15 +5778,15 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>305</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E30">
         <v>-10</v>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -5805,11 +5805,11 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
@@ -5823,7 +5823,7 @@
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -5832,15 +5832,15 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="E32">
         <v>-10</v>
@@ -5850,7 +5850,7 @@
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -5859,15 +5859,15 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="E33">
         <v>-10</v>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -5886,15 +5886,15 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>199</v>
+        <v>124</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="E34">
         <v>-10</v>
@@ -5904,7 +5904,7 @@
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -5913,15 +5913,15 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="2"/>
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="E35">
         <v>-10</v>
@@ -5931,7 +5931,7 @@
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -5940,15 +5940,15 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="2"/>
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="E36">
         <v>-10</v>
@@ -5967,15 +5967,15 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
-        <v>300</v>
+        <v>26</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="2"/>
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="E37">
         <v>-10</v>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
@@ -5994,15 +5994,15 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="2"/>
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="E38">
         <v>-10</v>
@@ -6021,11 +6021,11 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="0"/>
-        <v>222</v>
+        <v>315</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="2"/>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
@@ -6048,15 +6048,15 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="0"/>
-        <v>247</v>
+        <v>357</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="2"/>
-        <v>-7</v>
+        <v>-12</v>
       </c>
       <c r="E40">
         <v>-10</v>
@@ -6066,7 +6066,7 @@
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
@@ -6075,15 +6075,15 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="0"/>
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="2"/>
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="E41">
         <v>-10</v>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
@@ -6102,15 +6102,15 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="0"/>
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -6120,7 +6120,7 @@
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
@@ -6129,15 +6129,15 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
@@ -6156,15 +6156,15 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -6174,7 +6174,7 @@
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
@@ -6183,11 +6183,11 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="0"/>
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="2"/>
@@ -6201,7 +6201,7 @@
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
@@ -6210,15 +6210,15 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>166</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -6237,11 +6237,11 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="2"/>
@@ -6255,7 +6255,7 @@
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
@@ -6264,15 +6264,15 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="0"/>
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -6291,7 +6291,7 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -6309,7 +6309,7 @@
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
@@ -6318,11 +6318,11 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="0"/>
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="2"/>
@@ -6336,7 +6336,7 @@
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.45">
@@ -6345,15 +6345,15 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="0"/>
-        <v>126</v>
+        <v>287</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -6372,15 +6372,15 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="0"/>
-        <v>252</v>
+        <v>356</v>
       </c>
       <c r="C52">
         <f t="shared" ref="C52:C61" ca="1" si="4">ROUNDDOWN(COS(B52)*G52,0) +E52</f>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="D52">
         <f t="shared" ref="D52:D61" ca="1" si="5">ROUNDDOWN(SIN(B52)*G52,0) +F52</f>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -6399,11 +6399,11 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="0"/>
-        <v>330</v>
+        <v>229</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="4"/>
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="5"/>
@@ -6417,7 +6417,7 @@
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
@@ -6426,15 +6426,15 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>256</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="4"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -6453,11 +6453,11 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="0"/>
-        <v>204</v>
+        <v>94</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="4"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="5"/>
@@ -6471,7 +6471,7 @@
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
@@ -6480,15 +6480,15 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="0"/>
-        <v>262</v>
+        <v>333</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -6507,11 +6507,11 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="0"/>
-        <v>302</v>
+        <v>103</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="5"/>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
@@ -6534,15 +6534,15 @@
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="0"/>
-        <v>123</v>
+        <v>307</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="4"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -6552,7 +6552,7 @@
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.45">
@@ -6561,15 +6561,15 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -6579,7 +6579,7 @@
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.45">
@@ -6588,15 +6588,15 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -6606,7 +6606,7 @@
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
@@ -6615,15 +6615,15 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="0"/>
-        <v>345</v>
+        <v>161</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -6642,15 +6642,15 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="0"/>
-        <v>356</v>
+        <v>184</v>
       </c>
       <c r="C62">
         <f t="shared" ref="C62:C101" ca="1" si="6">ROUNDDOWN(COS(B62)*G62,0) +E62</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <f t="shared" ref="D62:D101" ca="1" si="7">ROUNDDOWN(SIN(B62)*G62,0) +F62</f>
-        <v>-14</v>
+        <v>-7</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.45">
@@ -6669,15 +6669,15 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="0"/>
-        <v>171</v>
+        <v>284</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="7"/>
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -6687,7 +6687,7 @@
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.45">
@@ -6696,15 +6696,15 @@
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="0"/>
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="7"/>
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -6723,15 +6723,15 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>353</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="6"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="7"/>
-        <v>-13</v>
+        <v>-6</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
@@ -6750,15 +6750,15 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="6"/>
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="7"/>
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -6777,7 +6777,7 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:B101" ca="1" si="8">RANDBETWEEN(0,360)</f>
-        <v>326</v>
+        <v>126</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="6"/>
@@ -6785,7 +6785,7 @@
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="7"/>
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -6795,7 +6795,7 @@
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G81" ca="1" si="9">RANDBETWEEN(3,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
@@ -6804,15 +6804,15 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="8"/>
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="7"/>
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -6831,15 +6831,15 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="8"/>
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="6"/>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="7"/>
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
@@ -6858,15 +6858,15 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="8"/>
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="6"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="7"/>
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -6876,7 +6876,7 @@
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
@@ -6885,11 +6885,11 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="8"/>
-        <v>335</v>
+        <v>253</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="6"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="7"/>
@@ -6912,15 +6912,15 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="8"/>
-        <v>139</v>
+        <v>313</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="7"/>
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -6930,7 +6930,7 @@
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
@@ -6939,15 +6939,15 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="8"/>
-        <v>17</v>
+        <v>283</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="6"/>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="7"/>
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -6957,7 +6957,7 @@
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
@@ -6966,15 +6966,15 @@
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="8"/>
-        <v>217</v>
+        <v>95</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="6"/>
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="7"/>
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -6984,7 +6984,7 @@
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
@@ -6993,15 +6993,15 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="8"/>
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="6"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="7"/>
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -7011,7 +7011,7 @@
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
@@ -7020,15 +7020,15 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="8"/>
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="6"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="7"/>
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -7038,7 +7038,7 @@
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
@@ -7047,15 +7047,15 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="8"/>
-        <v>35</v>
+        <v>333</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="6"/>
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="7"/>
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -7065,7 +7065,7 @@
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
@@ -7074,15 +7074,15 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="8"/>
-        <v>207</v>
+        <v>87</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="7"/>
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -7101,15 +7101,15 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="8"/>
-        <v>195</v>
+        <v>67</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="7"/>
-        <v>-9</v>
+        <v>-14</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -7128,7 +7128,7 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="6"/>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="7"/>
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -7155,15 +7155,15 @@
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="8"/>
-        <v>273</v>
+        <v>25</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="6"/>
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="7"/>
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -7173,7 +7173,7 @@
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
@@ -7182,15 +7182,15 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="8"/>
-        <v>254</v>
+        <v>5</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="6"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -7200,7 +7200,7 @@
       </c>
       <c r="G82">
         <f ca="1">RANDBETWEEN(2,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
@@ -7209,15 +7209,15 @@
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="8"/>
-        <v>121</v>
+        <v>336</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -7236,15 +7236,15 @@
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="8"/>
-        <v>137</v>
+        <v>298</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="7"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -7263,15 +7263,15 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="8"/>
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -7281,7 +7281,7 @@
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
@@ -7290,15 +7290,15 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="8"/>
-        <v>33</v>
+        <v>302</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -7317,7 +7317,7 @@
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="8"/>
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="6"/>
@@ -7344,7 +7344,7 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="8"/>
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="6"/>
@@ -7352,7 +7352,7 @@
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="7"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -7371,15 +7371,15 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="8"/>
-        <v>177</v>
+        <v>287</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.45">
@@ -7398,15 +7398,15 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="8"/>
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -7425,15 +7425,15 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -7443,7 +7443,7 @@
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.45">
@@ -7452,15 +7452,15 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="8"/>
-        <v>255</v>
+        <v>85</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="6"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="7"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -7470,7 +7470,7 @@
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
@@ -7479,15 +7479,15 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="7"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -7497,7 +7497,7 @@
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
@@ -7506,7 +7506,7 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="8"/>
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="6"/>
@@ -7514,7 +7514,7 @@
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -7524,7 +7524,7 @@
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
@@ -7533,15 +7533,15 @@
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -7560,15 +7560,15 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>302</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="7"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -7587,15 +7587,15 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="8"/>
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="6"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -7605,7 +7605,7 @@
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.45">
@@ -7614,15 +7614,15 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="6"/>
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -7641,15 +7641,15 @@
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -7668,15 +7668,15 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>193</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="6"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -7686,7 +7686,7 @@
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
@@ -7695,15 +7695,15 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="8"/>
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="6"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -7727,7 +7727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B71EC73-A948-421C-A1BE-313EBBD09477}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
@@ -8865,7 +8865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43AD3A4-E511-4383-8F4C-DD72E569C58C}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
